--- a/Reasons/Edit/Data.xlsx
+++ b/Reasons/Edit/Data.xlsx
@@ -5,15 +5,18 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielpan/Projects/Projects/TheReasons/Reasons/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielpan/Projects/Projects/TheReasons/Reasons/Edit/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29280" yWindow="3600" windowWidth="20320" windowHeight="18280" tabRatio="713"/>
+    <workbookView xWindow="8100" yWindow="800" windowWidth="24200" windowHeight="18280" tabRatio="713"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="14" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">items!$A$3:$E$3</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>i</t>
   </si>
@@ -56,9 +59,6 @@
     <t>reason</t>
   </si>
   <si>
-    <t>The food you love most while I hate most</t>
-  </si>
-  <si>
     <t>SculptureTime</t>
   </si>
   <si>
@@ -80,10 +80,16 @@
     <t>You've cooked me so many yummy food</t>
   </si>
   <si>
-    <t>Because I can never forget your cute face when we first met</t>
-  </si>
-  <si>
-    <t>The date we first met (in dd/MM/YY)</t>
+    <t>我们初次见面的日期 (in dd/MM/YY)</t>
+  </si>
+  <si>
+    <t>因为初见时你娇羞的微笑我永远忘不了。可惜现在看不到了</t>
+  </si>
+  <si>
+    <t>你最喜欢但我不喜欢的食物</t>
+  </si>
+  <si>
+    <t>疙瘩汤</t>
   </si>
 </sst>
 </file>
@@ -96,7 +102,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,10 +510,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -545,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -576,10 +582,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -589,14 +595,11 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -604,16 +607,575 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <f t="shared" ref="A8:A71" si="0">A7+1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <f t="shared" ref="A72:A98" si="1">A71+1</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:E3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Reasons/Edit/Data.xlsx
+++ b/Reasons/Edit/Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="800" windowWidth="24200" windowHeight="18280" tabRatio="713"/>
+    <workbookView xWindow="3020" yWindow="460" windowWidth="28080" windowHeight="20320" tabRatio="713"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="14" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="150">
   <si>
     <t>i</t>
   </si>
@@ -59,37 +59,427 @@
     <t>reason</t>
   </si>
   <si>
-    <t>SculptureTime</t>
-  </si>
-  <si>
-    <t>I know all your little secrets</t>
-  </si>
-  <si>
     <t>12/08/09</t>
   </si>
   <si>
     <t>tip</t>
   </si>
   <si>
-    <t>Gedatang</t>
-  </si>
-  <si>
-    <t>The café where we broke up for the second time</t>
-  </si>
-  <si>
-    <t>You've cooked me so many yummy food</t>
-  </si>
-  <si>
     <t>我们初次见面的日期 (in dd/MM/YY)</t>
   </si>
   <si>
-    <t>因为初见时你娇羞的微笑我永远忘不了。可惜现在看不到了</t>
-  </si>
-  <si>
     <t>你最喜欢但我不喜欢的食物</t>
   </si>
   <si>
     <t>疙瘩汤</t>
+  </si>
+  <si>
+    <t>因为我是个自虐狂，只要你想吃的我都陪你吃</t>
+  </si>
+  <si>
+    <t>牛肉</t>
+  </si>
+  <si>
+    <t>我最喜欢的肉类</t>
+  </si>
+  <si>
+    <t>我们初次见面的地点</t>
+  </si>
+  <si>
+    <t>雕刻时光</t>
+  </si>
+  <si>
+    <t>因为初见时你娇羞的微笑我永远忘不了。可惜现在难得一见了</t>
+  </si>
+  <si>
+    <t>因为我们同是肉食动物</t>
+  </si>
+  <si>
+    <t>因为过了这么多年你看上去还是那么小</t>
+  </si>
+  <si>
+    <t>我们约会时最常做的事情</t>
+  </si>
+  <si>
+    <t>自习</t>
+  </si>
+  <si>
+    <t>因为虽然你啥都学不会，还是愿意陪我学习</t>
+  </si>
+  <si>
+    <t>你众多外号里最官方的一个</t>
+  </si>
+  <si>
+    <t>龚宝鸡丁</t>
+  </si>
+  <si>
+    <t>因为我可以随便给你取外号</t>
+  </si>
+  <si>
+    <t>转机也算</t>
+  </si>
+  <si>
+    <t>因为要跟你走遍世界</t>
+  </si>
+  <si>
+    <t>咱们在哪个国家旅游时间最长</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>因为有过最浪漫的婚礼和蜜月</t>
+  </si>
+  <si>
+    <t>如果有人说：其实孕傻一般只有两年。你最可能的反应是？</t>
+  </si>
+  <si>
+    <t>哦</t>
+  </si>
+  <si>
+    <t>我人生三大需求中跟你相同的一个是？</t>
+  </si>
+  <si>
+    <t>吃</t>
+  </si>
+  <si>
+    <t>就让我们继续吃下去吧</t>
+  </si>
+  <si>
+    <t>用一个词描述我们两共同的特征</t>
+  </si>
+  <si>
+    <t>可爱</t>
+  </si>
+  <si>
+    <t>咱们要就这样一直可爱下去</t>
+  </si>
+  <si>
+    <t>我喜欢但你不喜欢的食物</t>
+  </si>
+  <si>
+    <t>太多</t>
+  </si>
+  <si>
+    <t>因为我是个自虐狂，只要你不想吃的我都忍着</t>
+  </si>
+  <si>
+    <t>两个字</t>
+  </si>
+  <si>
+    <t>我们第二次见面地点</t>
+  </si>
+  <si>
+    <t>望京科技园</t>
+  </si>
+  <si>
+    <t>因为过了这么多年我看上去也还是那么小</t>
+  </si>
+  <si>
+    <t>我最胖时的体重（公斤）</t>
+  </si>
+  <si>
+    <t>因为你会持之以恒催我减肥，虽然知道这个可能永不会实现</t>
+  </si>
+  <si>
+    <t>你在哪里答应做我女朋友</t>
+  </si>
+  <si>
+    <t>鸟巢</t>
+  </si>
+  <si>
+    <t>因为不好的事情你总是只说说而已</t>
+  </si>
+  <si>
+    <t>因为不好的事情在你面前我总是说都不敢说</t>
+  </si>
+  <si>
+    <t>林俊杰</t>
+  </si>
+  <si>
+    <t>我最近最喜欢的男歌手</t>
+  </si>
+  <si>
+    <t>因为你知道我喜欢的歌</t>
+  </si>
+  <si>
+    <t>你最喜欢听我唱谁的歌</t>
+  </si>
+  <si>
+    <t>光良</t>
+  </si>
+  <si>
+    <t>因为你每次都“哦”的太销魂</t>
+  </si>
+  <si>
+    <t>因为我唱的那么一般也有你这个忠实听众</t>
+  </si>
+  <si>
+    <t>我们躺床上时你最喜欢的活动是什么</t>
+  </si>
+  <si>
+    <t>讲故事</t>
+  </si>
+  <si>
+    <t>讲历史</t>
+  </si>
+  <si>
+    <t>因为你让我觉得我的某些知识还能有用</t>
+  </si>
+  <si>
+    <t>你想睡睡不着时需要我干什么</t>
+  </si>
+  <si>
+    <t>因为我总能童话我们的一切</t>
+  </si>
+  <si>
+    <t>我们躺床上时我最喜欢的活动是什么</t>
+  </si>
+  <si>
+    <t>爱爱</t>
+  </si>
+  <si>
+    <t>因为你总能让我期待下一次</t>
+  </si>
+  <si>
+    <t>你想睡快睡着时需要我干什么</t>
+  </si>
+  <si>
+    <t>安静</t>
+  </si>
+  <si>
+    <t>你想拉拉出来时干什么</t>
+  </si>
+  <si>
+    <t>放音乐</t>
+  </si>
+  <si>
+    <t>因为咱们花20欧买的街头艺人专辑是有用的</t>
+  </si>
+  <si>
+    <t>因为你让我觉得我的某些知识再丰富都没用</t>
+  </si>
+  <si>
+    <t>你想拉拉不出来时干什么</t>
+  </si>
+  <si>
+    <t>放屁</t>
+  </si>
+  <si>
+    <t>因为你总能让我觉得我是那样顺畅的幸福</t>
+  </si>
+  <si>
+    <t>卖萌</t>
+  </si>
+  <si>
+    <t>小面包</t>
+  </si>
+  <si>
+    <t>以下你哪个外号我没叫过？ 小疙瘩，小汤圆，小面包，小白痴，小可爱，小龚煮</t>
+  </si>
+  <si>
+    <t>跳舞</t>
+  </si>
+  <si>
+    <t>因为我只能在你面前跳蠢蠢的舞</t>
+  </si>
+  <si>
+    <t>我想吃东西时怎么表达</t>
+  </si>
+  <si>
+    <t>我想玩游戏时怎么表达</t>
+  </si>
+  <si>
+    <t>我想出去玩时怎么表达</t>
+  </si>
+  <si>
+    <t>因为我是你永远的萌军军长</t>
+  </si>
+  <si>
+    <t>因为我在你面前能把萌扩撒到新的范围</t>
+  </si>
+  <si>
+    <t>因为我在你面前能把萌发挥到新的高度</t>
+  </si>
+  <si>
+    <t>至今我们吵架最多的原因是</t>
+  </si>
+  <si>
+    <t>开车</t>
+  </si>
+  <si>
+    <t>我最瘦时的体重（公斤）</t>
+  </si>
+  <si>
+    <t>因为我还是会为你继续坚持减肥下去，总有一天会实现</t>
+  </si>
+  <si>
+    <t>我对你说过的最多一句话是什么？</t>
+  </si>
+  <si>
+    <t>我爱你</t>
+  </si>
+  <si>
+    <t>因为我是真的爱你</t>
+  </si>
+  <si>
+    <t>我最喜欢的蔬菜</t>
+  </si>
+  <si>
+    <t>菠菜</t>
+  </si>
+  <si>
+    <t>因为我是你的大力水手</t>
+  </si>
+  <si>
+    <t>你喜欢上我是因为我在——</t>
+  </si>
+  <si>
+    <t>因为我们终于有了自己的家</t>
+  </si>
+  <si>
+    <t>我给你做的Flash小游戏里要点破泡泡凑成一句什么话？</t>
+  </si>
+  <si>
+    <t>小白脸爱哑巴静</t>
+  </si>
+  <si>
+    <t>因为小白脸是我为数不多并持续不长的外号之一</t>
+  </si>
+  <si>
+    <t>我是为什么给你做了个Flash小游戏</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>红豆项链</t>
+  </si>
+  <si>
+    <t>四个字</t>
+  </si>
+  <si>
+    <t>我给你的画像里，你脖子上戴着什么项链？</t>
+  </si>
+  <si>
+    <t>我给你做的Flash小游戏里，你正在做什么</t>
+  </si>
+  <si>
+    <t>睡觉</t>
+  </si>
+  <si>
+    <t>因为你即使在游戏里也睡的那么安详</t>
+  </si>
+  <si>
+    <t>我在相识一周年时给你写了篇《一周年日记》，里面有几首诗</t>
+  </si>
+  <si>
+    <t>因为我能为你做我最得意的游戏</t>
+  </si>
+  <si>
+    <t>因为你比较上相，容易画</t>
+  </si>
+  <si>
+    <t>因为我很了解你：这道题答案大概要猜3次</t>
+  </si>
+  <si>
+    <t>黑白配</t>
+  </si>
+  <si>
+    <t>《一周年日记》里记的是你当时最爱听的几首歌，其中不包括以下哪首：爱情证书，疼你的责任，小情歌，黑白配，月亮代表我的心</t>
+  </si>
+  <si>
+    <t>我为你剪的第一段视频，是为了纪念我们相识多久？</t>
+  </si>
+  <si>
+    <t>500天</t>
+  </si>
+  <si>
+    <t>因为你是我各种才艺的输出管道</t>
+  </si>
+  <si>
+    <t>因为我的生活如诗如歌，你的生活如梦如幻（就是在睡觉的意思）</t>
+  </si>
+  <si>
+    <t>灌篮高手</t>
+  </si>
+  <si>
+    <t>参赛视频《我们的旅程》里的老虎机里，有一对是真夫妻，他们出自那部动漫</t>
+  </si>
+  <si>
+    <t>因为咱们在一起的运气总是还不错</t>
+  </si>
+  <si>
+    <t>我们去餐厅点过最多的菜</t>
+  </si>
+  <si>
+    <t>农家小炒肉</t>
+  </si>
+  <si>
+    <t>结婚前你闹过几次要分手</t>
+  </si>
+  <si>
+    <t>结婚前我闹过几次要分手</t>
+  </si>
+  <si>
+    <t>因为你真的好容易上钩</t>
+  </si>
+  <si>
+    <t>因为不管合不合适，咱们都要吃辣</t>
+  </si>
+  <si>
+    <t>故乡住处也算</t>
+  </si>
+  <si>
+    <t>我们一共踏上过几个国家土地（包括中国）</t>
+  </si>
+  <si>
+    <t>我们一起在国内一共旅游过几个地方？</t>
+  </si>
+  <si>
+    <t>因为你特别好玩，咱们去过好多地方</t>
+  </si>
+  <si>
+    <t>因为你特点鲜明，容易捉弄</t>
+  </si>
+  <si>
+    <t>你最喜欢的女歌手</t>
+  </si>
+  <si>
+    <t>范玮琪</t>
+  </si>
+  <si>
+    <t>因为我也知道你喜欢的歌</t>
+  </si>
+  <si>
+    <t>咱们一起看的第一部电影是</t>
+  </si>
+  <si>
+    <t>大内密探零零狗</t>
+  </si>
+  <si>
+    <t>因为和你一起最无聊的经历都值得记忆</t>
+  </si>
+  <si>
+    <t>你做过最受好评的菜</t>
+  </si>
+  <si>
+    <t>蚂蚁上树</t>
+  </si>
+  <si>
+    <t>因为我有口福</t>
+  </si>
+  <si>
+    <t>从我们开始住一起到现在，总共住过几个地方？（超过一周的）</t>
+  </si>
+  <si>
+    <t>新街口</t>
+  </si>
+  <si>
+    <t>咱们住一起时间最长的是哪里</t>
+  </si>
+  <si>
+    <t>因为我怀念我们初在一起的亲密</t>
   </si>
 </sst>
 </file>
@@ -510,17 +900,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.83203125" customWidth="1"/>
-    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="2" max="2" width="81.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" customWidth="1"/>
     <col min="5" max="5" width="62.33203125" customWidth="1"/>
@@ -534,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -551,7 +941,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
@@ -582,38 +972,33 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
+        <v>146</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -621,558 +1006,1071 @@
         <f>A6+1</f>
         <v>3</v>
       </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" ref="A8:A71" si="0">A7+1</f>
         <v>4</v>
       </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E9" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="4">
+        <v>75</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="4">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="4">
+        <v>9</v>
+      </c>
+      <c r="E40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E56" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" s="4">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>28</v>
+      </c>
+      <c r="D62" s="4">
+        <v>9</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" ref="A72:A98" si="1">A71+1</f>
+        <f t="shared" ref="A72:A102" si="1">A71+1</f>
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E73" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>61</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>70</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E90" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>76</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E91" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>72</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E92" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s">
+        <v>44</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E95" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" t="s">
+        <v>44</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E96" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
+      <c r="B98" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E98" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="D102" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:E3"/>
